--- a/Code/Results/Cases/Case_3_235/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_235/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.75723338804589</v>
+        <v>8.189129442330756</v>
       </c>
       <c r="C2">
-        <v>5.737902922858643</v>
+        <v>4.975048808213939</v>
       </c>
       <c r="D2">
-        <v>4.387378361383206</v>
+        <v>5.512714576635176</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.88092706897039</v>
+        <v>29.70730693473807</v>
       </c>
       <c r="G2">
-        <v>40.1499388106677</v>
+        <v>38.57026274743739</v>
       </c>
       <c r="H2">
-        <v>12.45100208495225</v>
+        <v>16.36177310450883</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.643353355670524</v>
+        <v>7.565589750431634</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.64926667713383</v>
+        <v>19.97959944550328</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.07495909638064</v>
+        <v>8.009700938023469</v>
       </c>
       <c r="C3">
-        <v>5.599976780312275</v>
+        <v>4.906111319743714</v>
       </c>
       <c r="D3">
-        <v>4.411467900315278</v>
+        <v>5.504093905534972</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.90216238688408</v>
+        <v>29.51843853347945</v>
       </c>
       <c r="G3">
-        <v>38.58275763948685</v>
+        <v>38.19099813884709</v>
       </c>
       <c r="H3">
-        <v>12.26419588442212</v>
+        <v>16.35037350796008</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.164641177362673</v>
+        <v>7.471119177851576</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.35517190988074</v>
+        <v>19.39227238399427</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.632620813412425</v>
+        <v>7.900105355938185</v>
       </c>
       <c r="C4">
-        <v>5.511732191674653</v>
+        <v>4.862197406099911</v>
       </c>
       <c r="D4">
-        <v>4.424980778333952</v>
+        <v>5.498386880100088</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.30611450056647</v>
+        <v>29.40835852569619</v>
       </c>
       <c r="G4">
-        <v>37.62439978794441</v>
+        <v>37.96536710553634</v>
       </c>
       <c r="H4">
-        <v>12.1559649935432</v>
+        <v>16.34585612347178</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.856628494904086</v>
+        <v>7.414807240002277</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.89865254643786</v>
+        <v>19.03082703143031</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.446464579988355</v>
+        <v>7.855665566999488</v>
       </c>
       <c r="C5">
-        <v>5.474918086737555</v>
+        <v>4.843910346781212</v>
       </c>
       <c r="D5">
-        <v>4.430201416123558</v>
+        <v>5.495957399138905</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.06464315377849</v>
+        <v>29.36501117472244</v>
       </c>
       <c r="G5">
-        <v>37.23513874956995</v>
+        <v>37.8753220063506</v>
       </c>
       <c r="H5">
-        <v>12.11344671231224</v>
+        <v>16.34463963374358</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.727629075280507</v>
+        <v>7.392317565478507</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.29215601626514</v>
+        <v>18.88357286818615</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.415196941586391</v>
+        <v>7.848302016877367</v>
       </c>
       <c r="C6">
-        <v>5.468754729927502</v>
+        <v>4.840850343404792</v>
       </c>
       <c r="D6">
-        <v>4.431051974427444</v>
+        <v>5.49554772260739</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.02463896611496</v>
+        <v>29.35790550623998</v>
       </c>
       <c r="G6">
-        <v>37.17058924710613</v>
+        <v>37.86048720968738</v>
       </c>
       <c r="H6">
-        <v>12.10648125897886</v>
+        <v>16.34447534918797</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.706000476863236</v>
+        <v>7.388611748882731</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.19064136907729</v>
+        <v>18.8591310763805</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.630134143795695</v>
+        <v>7.899505026602559</v>
       </c>
       <c r="C7">
-        <v>5.511239107879876</v>
+        <v>4.861952357230463</v>
       </c>
       <c r="D7">
-        <v>4.425052300162294</v>
+        <v>5.498354535303744</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.30285190420614</v>
+        <v>29.40776777043219</v>
       </c>
       <c r="G7">
-        <v>37.61914446774833</v>
+        <v>37.96414492322884</v>
       </c>
       <c r="H7">
-        <v>12.15538520497503</v>
+        <v>16.34583718923477</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.854902775001962</v>
+        <v>7.414502040597768</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.89052667011521</v>
+        <v>19.0288406256858</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.52683762102215</v>
+        <v>8.127188920104448</v>
       </c>
       <c r="C8">
-        <v>5.69110953651935</v>
+        <v>4.951612458056958</v>
       </c>
       <c r="D8">
-        <v>4.395972657346416</v>
+        <v>5.509828226910803</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.54253014326054</v>
+        <v>29.64098289819284</v>
       </c>
       <c r="G8">
-        <v>39.60892395675562</v>
+        <v>38.43803976865338</v>
       </c>
       <c r="H8">
-        <v>12.3852242084838</v>
+        <v>16.35732761968096</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.481248294149459</v>
+        <v>7.532684330298892</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>28.86762972348699</v>
+        <v>19.77740357007992</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.10019222075132</v>
+        <v>8.574952593234181</v>
       </c>
       <c r="C9">
-        <v>6.013629122651102</v>
+        <v>5.114560196606695</v>
       </c>
       <c r="D9">
-        <v>4.32689001381398</v>
+        <v>5.529032744023445</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.00638770214285</v>
+        <v>30.14353813622148</v>
       </c>
       <c r="G9">
-        <v>43.53267469503879</v>
+        <v>39.42103391901561</v>
       </c>
       <c r="H9">
-        <v>12.88920455051264</v>
+        <v>16.39953281665012</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.59565055917892</v>
+        <v>7.776430719058661</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.37409464533537</v>
+        <v>21.22865725170483</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.14451996906579</v>
+        <v>8.900498567885789</v>
       </c>
       <c r="C10">
-        <v>6.228997096790772</v>
+        <v>5.226064144548062</v>
       </c>
       <c r="D10">
-        <v>4.265439332399363</v>
+        <v>5.541118178412983</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.83228936850623</v>
+        <v>30.53819639073357</v>
       </c>
       <c r="G10">
-        <v>46.42382777283756</v>
+        <v>40.17072680969137</v>
       </c>
       <c r="H10">
-        <v>13.29507651130344</v>
+        <v>16.44249111273435</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.34252872649636</v>
+        <v>7.960857675782108</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.30310316676518</v>
+        <v>22.27217420542573</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.59562759839278</v>
+        <v>9.047031351841518</v>
       </c>
       <c r="C11">
-        <v>6.321365753836325</v>
+        <v>5.27493598628023</v>
       </c>
       <c r="D11">
-        <v>4.234136095873567</v>
+        <v>5.546173376439569</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>32.66685862143679</v>
+        <v>30.72276173942756</v>
       </c>
       <c r="G11">
-        <v>47.74244558713174</v>
+        <v>40.51658717414697</v>
       </c>
       <c r="H11">
-        <v>13.4883350724465</v>
+        <v>16.46461339553149</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.66619004750696</v>
+        <v>8.045501854050201</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.09168485316432</v>
+        <v>22.73962633856685</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.76301732772577</v>
+        <v>9.10223206861477</v>
       </c>
       <c r="C12">
-        <v>6.355432346675751</v>
+        <v>5.29317061917857</v>
       </c>
       <c r="D12">
-        <v>4.221683311605983</v>
+        <v>5.548023734245501</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.98362356174695</v>
+        <v>30.79333116781981</v>
       </c>
       <c r="G12">
-        <v>48.24261244712878</v>
+        <v>40.64814918442116</v>
       </c>
       <c r="H12">
-        <v>13.56285407630473</v>
+        <v>16.47335964071033</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.78638547199956</v>
+        <v>8.077627553761022</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.77221991721825</v>
+        <v>22.91542357959502</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.72711966344704</v>
+        <v>9.090357388909267</v>
       </c>
       <c r="C13">
-        <v>6.348138075708906</v>
+        <v>5.289255653747897</v>
       </c>
       <c r="D13">
-        <v>4.224394136466255</v>
+        <v>5.547628074957429</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.91536609444347</v>
+        <v>30.7781033351358</v>
       </c>
       <c r="G13">
-        <v>48.13484758713561</v>
+        <v>40.61979022671118</v>
       </c>
       <c r="H13">
-        <v>13.54674383022103</v>
+        <v>16.47145960398304</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.76060557304076</v>
+        <v>8.070706017081921</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.62545130383167</v>
+        <v>22.87761921164687</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.6094676676528</v>
+        <v>9.05157887160213</v>
       </c>
       <c r="C14">
-        <v>6.324187422490344</v>
+        <v>5.276441645181461</v>
       </c>
       <c r="D14">
-        <v>4.233124400899302</v>
+        <v>5.546326889596108</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>32.69290302703197</v>
+        <v>30.72855419379587</v>
       </c>
       <c r="G14">
-        <v>47.78357513252204</v>
+        <v>40.52739957176762</v>
       </c>
       <c r="H14">
-        <v>13.4944383717805</v>
+        <v>16.4653255715369</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.6761264166207</v>
+        <v>8.048143592136732</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.14758702911563</v>
+        <v>22.75411460787089</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.53695524532366</v>
+        <v>9.027786574420926</v>
       </c>
       <c r="C15">
-        <v>6.309394571361687</v>
+        <v>5.268557097123871</v>
       </c>
       <c r="D15">
-        <v>4.238389858508637</v>
+        <v>5.545521540666606</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>32.55674017711237</v>
+        <v>30.69829091370179</v>
       </c>
       <c r="G15">
-        <v>47.56853324293411</v>
+        <v>40.47088174228934</v>
       </c>
       <c r="H15">
-        <v>13.46257707525353</v>
+        <v>16.46161629056621</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.6240702663949</v>
+        <v>8.034331916688142</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.85541001187946</v>
+        <v>22.6783011277896</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.11455797122052</v>
+        <v>8.890885371662197</v>
       </c>
       <c r="C16">
-        <v>6.222839500556819</v>
+        <v>5.222832489211533</v>
       </c>
       <c r="D16">
-        <v>4.267408411061795</v>
+        <v>5.540778878853034</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.77783915091187</v>
+        <v>30.5262320578689</v>
       </c>
       <c r="G16">
-        <v>46.33774636296729</v>
+        <v>40.14821240682629</v>
       </c>
       <c r="H16">
-        <v>13.28262779623764</v>
+        <v>16.44109712616659</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.32104852412989</v>
+        <v>7.95533803881178</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.18648126721192</v>
+        <v>22.2414639559497</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.84930393833057</v>
+        <v>8.806454721685125</v>
       </c>
       <c r="C17">
-        <v>6.1682396554348</v>
+        <v>5.194303402292612</v>
       </c>
       <c r="D17">
-        <v>4.284279189755398</v>
+        <v>5.537755853909266</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>31.30110172799316</v>
+        <v>30.42193692999088</v>
       </c>
       <c r="G17">
-        <v>45.58375407553923</v>
+        <v>39.95142831354568</v>
       </c>
       <c r="H17">
-        <v>13.17450450141556</v>
+        <v>16.42916882667496</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.13099753230334</v>
+        <v>7.907044397732228</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.16487263961324</v>
+        <v>21.9714925015245</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.69448109546227</v>
+        <v>8.757749189576417</v>
       </c>
       <c r="C18">
-        <v>6.136315612443565</v>
+        <v>5.177720244449055</v>
       </c>
       <c r="D18">
-        <v>4.29367623330959</v>
+        <v>5.535975455289247</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.02725150165851</v>
+        <v>30.3624256961909</v>
       </c>
       <c r="G18">
-        <v>45.15036774439436</v>
+        <v>39.83870321519174</v>
       </c>
       <c r="H18">
-        <v>13.11311973902548</v>
+        <v>16.4225510003817</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.02017375803369</v>
+        <v>7.879339564863049</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.57716218599908</v>
+        <v>21.81553910994276</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.64167284762626</v>
+        <v>8.741235741541439</v>
       </c>
       <c r="C19">
-        <v>6.125420166934148</v>
+        <v>5.172075772021401</v>
       </c>
       <c r="D19">
-        <v>4.296808303992608</v>
+        <v>5.535365501261222</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.93458868173687</v>
+        <v>30.34235942137827</v>
       </c>
       <c r="G19">
-        <v>45.00367327447254</v>
+        <v>39.80061849534605</v>
       </c>
       <c r="H19">
-        <v>13.09247163169455</v>
+        <v>16.42035211293004</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.98239255619284</v>
+        <v>7.869972685837692</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.37807597635951</v>
+        <v>21.76262597787839</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.87777403619755</v>
+        <v>8.815457810366974</v>
       </c>
       <c r="C20">
-        <v>6.174106352329942</v>
+        <v>5.197358421616639</v>
       </c>
       <c r="D20">
-        <v>4.282515740357472</v>
+        <v>5.538081971278203</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.35181353871069</v>
+        <v>30.4329903251696</v>
       </c>
       <c r="G20">
-        <v>45.66398599662146</v>
+        <v>39.97232944851805</v>
       </c>
       <c r="H20">
-        <v>13.18593049278102</v>
+        <v>16.43041347698141</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.15138555987866</v>
+        <v>7.912178099442316</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.2736165401256</v>
+        <v>22.00030238771085</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.64411809818894</v>
+        <v>9.06297736750448</v>
       </c>
       <c r="C21">
-        <v>6.331248052410918</v>
+        <v>5.280212858515424</v>
       </c>
       <c r="D21">
-        <v>4.230577478387964</v>
+        <v>5.546710816888047</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.75822405359745</v>
+        <v>30.74308992959408</v>
       </c>
       <c r="G21">
-        <v>47.88672587901451</v>
+        <v>40.55452168212555</v>
       </c>
       <c r="H21">
-        <v>13.509764591694</v>
+        <v>16.46711728834562</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.7010047618181</v>
+        <v>8.054769020816671</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.28783029915082</v>
+        <v>22.7904252323536</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.12494300712199</v>
+        <v>9.223040055280027</v>
       </c>
       <c r="C22">
-        <v>6.428560536721712</v>
+        <v>5.332774723016742</v>
       </c>
       <c r="D22">
-        <v>4.193058416047043</v>
+        <v>5.551977457390414</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.68183148512884</v>
+        <v>30.94969110867336</v>
       </c>
       <c r="G22">
-        <v>49.3446123158105</v>
+        <v>40.93842272774839</v>
       </c>
       <c r="H22">
-        <v>13.72926325252949</v>
+        <v>16.49325509288551</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.04637168512222</v>
+        <v>8.148369137949871</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.27886994253004</v>
+        <v>23.29965495391865</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.87014945321052</v>
+        <v>9.137787624001895</v>
       </c>
       <c r="C23">
-        <v>6.377160501288201</v>
+        <v>5.304868620718935</v>
       </c>
       <c r="D23">
-        <v>4.213459001920204</v>
+        <v>5.54920076424826</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>33.1883909171865</v>
+        <v>30.83907956528379</v>
       </c>
       <c r="G23">
-        <v>48.56586113278802</v>
+        <v>40.73324943922639</v>
       </c>
       <c r="H23">
-        <v>13.61135477371823</v>
+        <v>16.47910890795011</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.86333142825771</v>
+        <v>8.098386865236956</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.21300169195164</v>
+        <v>23.02857802105428</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.86490994706693</v>
+        <v>8.811388023732739</v>
       </c>
       <c r="C24">
-        <v>6.17145567404416</v>
+        <v>5.195977811977459</v>
       </c>
       <c r="D24">
-        <v>4.28331392874615</v>
+        <v>5.537934665725751</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.32888601552004</v>
+        <v>30.42799168193747</v>
       </c>
       <c r="G24">
-        <v>45.62771287552453</v>
+        <v>39.96287876473131</v>
       </c>
       <c r="H24">
-        <v>13.18076238950122</v>
+        <v>16.42985002315545</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.14217299077134</v>
+        <v>7.909856963919461</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.22445480460891</v>
+        <v>21.9872797396756</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.69425125031835</v>
+        <v>8.454130528366205</v>
       </c>
       <c r="C25">
-        <v>5.9299090931372</v>
+        <v>5.071895815273809</v>
       </c>
       <c r="D25">
-        <v>4.347171528634777</v>
+        <v>5.524191773577717</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.33699719701884</v>
+        <v>30.00295455888697</v>
       </c>
       <c r="G25">
-        <v>42.46977166147466</v>
+        <v>39.14989116380256</v>
       </c>
       <c r="H25">
-        <v>12.74686722954888</v>
+        <v>16.38601225687796</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.30663248881381</v>
+        <v>7.709409397610441</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>32.91225477900433</v>
+        <v>20.83919594976571</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_235/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_235/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.189129442330756</v>
+        <v>10.75723338804591</v>
       </c>
       <c r="C2">
-        <v>4.975048808213939</v>
+        <v>5.737902922858638</v>
       </c>
       <c r="D2">
-        <v>5.512714576635176</v>
+        <v>4.387378361383272</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.70730693473807</v>
+        <v>27.88092706897029</v>
       </c>
       <c r="G2">
-        <v>38.57026274743739</v>
+        <v>40.14993881066758</v>
       </c>
       <c r="H2">
-        <v>16.36177310450883</v>
+        <v>12.45100208495215</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.565589750431634</v>
+        <v>9.643353355670563</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.97959944550328</v>
+        <v>29.64926667713384</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.009700938023469</v>
+        <v>10.07495909638055</v>
       </c>
       <c r="C3">
-        <v>4.906111319743714</v>
+        <v>5.599976780312296</v>
       </c>
       <c r="D3">
-        <v>5.504093905534972</v>
+        <v>4.411467900315349</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.51843853347945</v>
+        <v>26.90216238688393</v>
       </c>
       <c r="G3">
-        <v>38.19099813884709</v>
+        <v>38.58275763948663</v>
       </c>
       <c r="H3">
-        <v>16.35037350796008</v>
+        <v>12.26419588442196</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.471119177851576</v>
+        <v>9.164641177362677</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.39227238399427</v>
+        <v>27.35517190988071</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.900105355938185</v>
+        <v>9.63262081341237</v>
       </c>
       <c r="C4">
-        <v>4.862197406099911</v>
+        <v>5.511732191674905</v>
       </c>
       <c r="D4">
-        <v>5.498386880100088</v>
+        <v>4.424980778333955</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.40835852569619</v>
+        <v>26.30611450056649</v>
       </c>
       <c r="G4">
-        <v>37.96536710553634</v>
+        <v>37.62439978794441</v>
       </c>
       <c r="H4">
-        <v>16.34585612347178</v>
+        <v>12.1559649935432</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.414807240002277</v>
+        <v>8.856628494904088</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.03082703143031</v>
+        <v>25.8986525464379</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.855665566999488</v>
+        <v>9.446464579988351</v>
       </c>
       <c r="C5">
-        <v>4.843910346781212</v>
+        <v>5.474918086737312</v>
       </c>
       <c r="D5">
-        <v>5.495957399138905</v>
+        <v>4.430201416123693</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.36501117472244</v>
+        <v>26.06464315377849</v>
       </c>
       <c r="G5">
-        <v>37.8753220063506</v>
+        <v>37.23513874956994</v>
       </c>
       <c r="H5">
-        <v>16.34463963374358</v>
+        <v>12.11344671231233</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.392317565478507</v>
+        <v>8.727629075280435</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.88357286818615</v>
+        <v>25.29215601626518</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.848302016877367</v>
+        <v>9.415196941586391</v>
       </c>
       <c r="C6">
-        <v>4.840850343404792</v>
+        <v>5.468754729927631</v>
       </c>
       <c r="D6">
-        <v>5.49554772260739</v>
+        <v>4.431051974427307</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.35790550623998</v>
+        <v>26.02463896611494</v>
       </c>
       <c r="G6">
-        <v>37.86048720968738</v>
+        <v>37.17058924710601</v>
       </c>
       <c r="H6">
-        <v>16.34447534918797</v>
+        <v>12.10648125897886</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.388611748882731</v>
+        <v>8.706000476863307</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.8591310763805</v>
+        <v>25.1906413690773</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.899505026602559</v>
+        <v>9.630134143795658</v>
       </c>
       <c r="C7">
-        <v>4.861952357230463</v>
+        <v>5.51123910787987</v>
       </c>
       <c r="D7">
-        <v>5.498354535303744</v>
+        <v>4.425052300162361</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>29.40776777043219</v>
+        <v>26.30285190420618</v>
       </c>
       <c r="G7">
-        <v>37.96414492322884</v>
+        <v>37.61914446774841</v>
       </c>
       <c r="H7">
-        <v>16.34583718923477</v>
+        <v>12.15538520497507</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.414502040597768</v>
+        <v>8.854902775001863</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.0288406256858</v>
+        <v>25.89052667011526</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.127188920104448</v>
+        <v>10.5268376210222</v>
       </c>
       <c r="C8">
-        <v>4.951612458056958</v>
+        <v>5.691109536519481</v>
       </c>
       <c r="D8">
-        <v>5.509828226910803</v>
+        <v>4.395972657346418</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.64098289819284</v>
+        <v>27.54253014326055</v>
       </c>
       <c r="G8">
-        <v>38.43803976865338</v>
+        <v>39.60892395675554</v>
       </c>
       <c r="H8">
-        <v>16.35732761968096</v>
+        <v>12.38522420848376</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.532684330298892</v>
+        <v>9.481248294149488</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.77740357007992</v>
+        <v>28.86762972348691</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.574952593234181</v>
+        <v>12.10019222075125</v>
       </c>
       <c r="C9">
-        <v>5.114560196606695</v>
+        <v>6.013629122651224</v>
       </c>
       <c r="D9">
-        <v>5.529032744023445</v>
+        <v>4.326890013814117</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.14353813622148</v>
+        <v>30.00638770214283</v>
       </c>
       <c r="G9">
-        <v>39.42103391901561</v>
+        <v>43.53267469503879</v>
       </c>
       <c r="H9">
-        <v>16.39953281665012</v>
+        <v>12.88920455051269</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7.776430719058661</v>
+        <v>10.59565055917889</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.22865725170483</v>
+        <v>34.37409464533528</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.900498567885789</v>
+        <v>13.14451996906581</v>
       </c>
       <c r="C10">
-        <v>5.226064144548062</v>
+        <v>6.228997096791011</v>
       </c>
       <c r="D10">
-        <v>5.541118178412983</v>
+        <v>4.265439332399162</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.53819639073357</v>
+        <v>31.83228936850626</v>
       </c>
       <c r="G10">
-        <v>40.17072680969137</v>
+        <v>46.42382777283758</v>
       </c>
       <c r="H10">
-        <v>16.44249111273435</v>
+        <v>13.29507651130345</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7.960857675782108</v>
+        <v>11.34252872649638</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.27217420542573</v>
+        <v>38.30310316676515</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.047031351841518</v>
+        <v>13.59562759839294</v>
       </c>
       <c r="C11">
-        <v>5.27493598628023</v>
+        <v>6.321365753836313</v>
       </c>
       <c r="D11">
-        <v>5.546173376439569</v>
+        <v>4.234136095873431</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.72276173942756</v>
+        <v>32.66685862143682</v>
       </c>
       <c r="G11">
-        <v>40.51658717414697</v>
+        <v>47.74244558713178</v>
       </c>
       <c r="H11">
-        <v>16.46461339553149</v>
+        <v>13.48833507244651</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.045501854050201</v>
+        <v>11.66619004750707</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.73962633856685</v>
+        <v>40.09168485316445</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.10223206861477</v>
+        <v>13.76301732772577</v>
       </c>
       <c r="C12">
-        <v>5.29317061917857</v>
+        <v>6.3554323466761</v>
       </c>
       <c r="D12">
-        <v>5.548023734245501</v>
+        <v>4.22168331160578</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.79333116781981</v>
+        <v>32.98362356174689</v>
       </c>
       <c r="G12">
-        <v>40.64814918442116</v>
+        <v>48.24261244712869</v>
       </c>
       <c r="H12">
-        <v>16.47335964071033</v>
+        <v>13.56285407630469</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.077627553761022</v>
+        <v>11.78638547199963</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.91542357959502</v>
+        <v>40.77221991721817</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.090357388909267</v>
+        <v>13.72711966344704</v>
       </c>
       <c r="C13">
-        <v>5.289255653747897</v>
+        <v>6.348138075709028</v>
       </c>
       <c r="D13">
-        <v>5.547628074957429</v>
+        <v>4.224394136466255</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.7781033351358</v>
+        <v>32.91536609444347</v>
       </c>
       <c r="G13">
-        <v>40.61979022671118</v>
+        <v>48.13484758713557</v>
       </c>
       <c r="H13">
-        <v>16.47145960398304</v>
+        <v>13.54674383022108</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.070706017081921</v>
+        <v>11.7606055730408</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.87761921164687</v>
+        <v>40.62545130383161</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.05157887160213</v>
+        <v>13.60946766765286</v>
       </c>
       <c r="C14">
-        <v>5.276441645181461</v>
+        <v>6.324187422490568</v>
       </c>
       <c r="D14">
-        <v>5.546326889596108</v>
+        <v>4.233124400899432</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30.72855419379587</v>
+        <v>32.69290302703201</v>
       </c>
       <c r="G14">
-        <v>40.52739957176762</v>
+        <v>47.78357513252213</v>
       </c>
       <c r="H14">
-        <v>16.4653255715369</v>
+        <v>13.49443837178052</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.048143592136732</v>
+        <v>11.67612641662074</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.75411460787089</v>
+        <v>40.14758702911558</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.027786574420926</v>
+        <v>13.53695524532363</v>
       </c>
       <c r="C15">
-        <v>5.268557097123871</v>
+        <v>6.309394571361926</v>
       </c>
       <c r="D15">
-        <v>5.545521540666606</v>
+        <v>4.23838985850877</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.69829091370179</v>
+        <v>32.55674017711229</v>
       </c>
       <c r="G15">
-        <v>40.47088174228934</v>
+        <v>47.56853324293402</v>
       </c>
       <c r="H15">
-        <v>16.46161629056621</v>
+        <v>13.46257707525353</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.034331916688142</v>
+        <v>11.62407026639497</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.6783011277896</v>
+        <v>39.85541001187946</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.890885371662197</v>
+        <v>13.11455797122056</v>
       </c>
       <c r="C16">
-        <v>5.222832489211533</v>
+        <v>6.222839500556815</v>
       </c>
       <c r="D16">
-        <v>5.540778878853034</v>
+        <v>4.267408411062058</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.5262320578689</v>
+        <v>31.77783915091176</v>
       </c>
       <c r="G16">
-        <v>40.14821240682629</v>
+        <v>46.33774636296728</v>
       </c>
       <c r="H16">
-        <v>16.44109712616659</v>
+        <v>13.28262779623755</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>7.95533803881178</v>
+        <v>11.32104852412991</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.2414639559497</v>
+        <v>38.186481267212</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.806454721685125</v>
+        <v>12.84930393833056</v>
       </c>
       <c r="C17">
-        <v>5.194303402292612</v>
+        <v>6.168239655434794</v>
       </c>
       <c r="D17">
-        <v>5.537755853909266</v>
+        <v>4.284279189755395</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.42193692999088</v>
+        <v>31.30110172799311</v>
       </c>
       <c r="G17">
-        <v>39.95142831354568</v>
+        <v>45.58375407553915</v>
       </c>
       <c r="H17">
-        <v>16.42916882667496</v>
+        <v>13.17450450141554</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.907044397732228</v>
+        <v>11.13099753230336</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.9714925015245</v>
+        <v>37.16487263961324</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.757749189576417</v>
+        <v>12.6944810954622</v>
       </c>
       <c r="C18">
-        <v>5.177720244449055</v>
+        <v>6.13631561244392</v>
       </c>
       <c r="D18">
-        <v>5.535975455289247</v>
+        <v>4.293676233309455</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.3624256961909</v>
+        <v>31.02725150165859</v>
       </c>
       <c r="G18">
-        <v>39.83870321519174</v>
+        <v>45.15036774439448</v>
       </c>
       <c r="H18">
-        <v>16.4225510003817</v>
+        <v>13.11311973902547</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.879339564863049</v>
+        <v>11.02017375803369</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.81553910994276</v>
+        <v>36.57716218599917</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.741235741541439</v>
+        <v>12.64167284762639</v>
       </c>
       <c r="C19">
-        <v>5.172075772021401</v>
+        <v>6.125420166933788</v>
       </c>
       <c r="D19">
-        <v>5.535365501261222</v>
+        <v>4.296808303992405</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.34235942137827</v>
+        <v>30.93458868173683</v>
       </c>
       <c r="G19">
-        <v>39.80061849534605</v>
+        <v>45.00367327447247</v>
       </c>
       <c r="H19">
-        <v>16.42035211293004</v>
+        <v>13.09247163169447</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.869972685837692</v>
+        <v>10.98239255619284</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.76262597787839</v>
+        <v>36.37807597635955</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.815457810366974</v>
+        <v>12.87777403619764</v>
       </c>
       <c r="C20">
-        <v>5.197358421616639</v>
+        <v>6.174106352329825</v>
       </c>
       <c r="D20">
-        <v>5.538081971278203</v>
+        <v>4.282515740357805</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.4329903251696</v>
+        <v>31.35181353871056</v>
       </c>
       <c r="G20">
-        <v>39.97232944851805</v>
+        <v>45.66398599662141</v>
       </c>
       <c r="H20">
-        <v>16.43041347698141</v>
+        <v>13.18593049278098</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.912178099442316</v>
+        <v>11.15138555987868</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.00030238771085</v>
+        <v>37.27361654012564</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.06297736750448</v>
+        <v>13.64411809818896</v>
       </c>
       <c r="C21">
-        <v>5.280212858515424</v>
+        <v>6.331248052411148</v>
       </c>
       <c r="D21">
-        <v>5.546710816888047</v>
+        <v>4.230577478387898</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.74308992959408</v>
+        <v>32.75822405359739</v>
       </c>
       <c r="G21">
-        <v>40.55452168212555</v>
+        <v>47.88672587901439</v>
       </c>
       <c r="H21">
-        <v>16.46711728834562</v>
+        <v>13.50976459169396</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.054769020816671</v>
+        <v>11.70100476181809</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.7904252323536</v>
+        <v>40.28783029915096</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.223040055280027</v>
+        <v>14.12494300712194</v>
       </c>
       <c r="C22">
-        <v>5.332774723016742</v>
+        <v>6.428560536721831</v>
       </c>
       <c r="D22">
-        <v>5.551977457390414</v>
+        <v>4.193058416047111</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.94969110867336</v>
+        <v>33.68183148512882</v>
       </c>
       <c r="G22">
-        <v>40.93842272774839</v>
+        <v>49.34461231581047</v>
       </c>
       <c r="H22">
-        <v>16.49325509288551</v>
+        <v>13.72926325252948</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>8.148369137949871</v>
+        <v>12.0463716851222</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.29965495391865</v>
+        <v>42.27886994252987</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.137787624001895</v>
+        <v>13.8701494532105</v>
       </c>
       <c r="C23">
-        <v>5.304868620718935</v>
+        <v>6.377160501287971</v>
       </c>
       <c r="D23">
-        <v>5.54920076424826</v>
+        <v>4.213459001920402</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.83907956528379</v>
+        <v>33.18839091718651</v>
       </c>
       <c r="G23">
-        <v>40.73324943922639</v>
+        <v>48.56586113278809</v>
       </c>
       <c r="H23">
-        <v>16.47910890795011</v>
+        <v>13.61135477371823</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.098386865236956</v>
+        <v>11.8633314282577</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.02857802105428</v>
+        <v>41.21300169195146</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.811388023732739</v>
+        <v>12.86490994706698</v>
       </c>
       <c r="C24">
-        <v>5.195977811977459</v>
+        <v>6.17145567404414</v>
       </c>
       <c r="D24">
-        <v>5.537934665725751</v>
+        <v>4.283313928746076</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.42799168193747</v>
+        <v>31.32888601552012</v>
       </c>
       <c r="G24">
-        <v>39.96287876473131</v>
+        <v>45.62771287552465</v>
       </c>
       <c r="H24">
-        <v>16.42985002315545</v>
+        <v>13.18076238950124</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.909856963919461</v>
+        <v>11.14217299077138</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.9872797396756</v>
+        <v>37.22445480460897</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.454130528366205</v>
+        <v>11.69425125031828</v>
       </c>
       <c r="C25">
-        <v>5.071895815273809</v>
+        <v>5.929909093137342</v>
       </c>
       <c r="D25">
-        <v>5.524191773577717</v>
+        <v>4.347171528634778</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.00295455888697</v>
+        <v>29.3369971970189</v>
       </c>
       <c r="G25">
-        <v>39.14989116380256</v>
+        <v>42.46977166147467</v>
       </c>
       <c r="H25">
-        <v>16.38601225687796</v>
+        <v>12.74686722954889</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>7.709409397610441</v>
+        <v>10.30663248881382</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.83919594976571</v>
+        <v>32.9122547790044</v>
       </c>
       <c r="N25">
         <v>0</v>
